--- a/output/below_50/tRNA-Val-TAC-1-1.xlsx
+++ b/output/below_50/tRNA-Val-TAC-1-1.xlsx
@@ -12,15 +12,90 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="79">
   <si>
     <t>chr11</t>
   </si>
   <si>
-    <t>59318104</t>
-  </si>
-  <si>
-    <t>59318127</t>
+    <t>59318699</t>
+  </si>
+  <si>
+    <t>59318722</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>59318702</t>
+  </si>
+  <si>
+    <t>80,80,80</t>
+  </si>
+  <si>
+    <t>255,0,0</t>
+  </si>
+  <si>
+    <t>TTTCTTTCCACAAGTAAGTG</t>
+  </si>
+  <si>
+    <t>TGG</t>
+  </si>
+  <si>
+    <t>78% (59)</t>
+  </si>
+  <si>
+    <t>10% (22)</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>MIT Spec. Score: 49, Doench 2016: 78%, Moreno-Mateos: 10%</t>
+  </si>
+  <si>
+    <t>2.6995E+11</t>
+  </si>
+  <si>
+    <t>59318456</t>
+  </si>
+  <si>
+    <t>59318479</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>59318459</t>
+  </si>
+  <si>
+    <t>TTCGAGCCCCAGTGGAACCA</t>
+  </si>
+  <si>
+    <t>CGG</t>
+  </si>
+  <si>
+    <t>74% (57)</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>MIT Spec. Score: 28, Doench 2016: 78%, Moreno-Mateos: 74%</t>
+  </si>
+  <si>
+    <t>1.70324E+11</t>
+  </si>
+  <si>
+    <t>59318462</t>
+  </si>
+  <si>
+    <t>59318485</t>
   </si>
   <si>
     <t>0</t>
@@ -29,15 +104,12 @@
     <t>+</t>
   </si>
   <si>
-    <t>59318124</t>
+    <t>59318482</t>
   </si>
   <si>
     <t>150,150,150</t>
   </si>
   <si>
-    <t>255,0,0</t>
-  </si>
-  <si>
     <t>TTCCACTGGGGCTCGAACCC</t>
   </si>
   <si>
@@ -56,30 +128,24 @@
     <t>2</t>
   </si>
   <si>
-    <t>69</t>
+    <t>70</t>
   </si>
   <si>
     <t>Sequence is not unique in genome</t>
   </si>
   <si>
-    <t>59318106</t>
-  </si>
-  <si>
-    <t>59318129</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>59318109</t>
+    <t>59318464</t>
+  </si>
+  <si>
+    <t>59318487</t>
+  </si>
+  <si>
+    <t>59318467</t>
   </si>
   <si>
     <t>GTCCTGGGTTCGAGCCCCAG</t>
   </si>
   <si>
-    <t>TGG</t>
-  </si>
-  <si>
     <t>86% (62)</t>
   </si>
   <si>
@@ -89,13 +155,10 @@
     <t>20</t>
   </si>
   <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>59318121</t>
-  </si>
-  <si>
-    <t>59318144</t>
+    <t>63</t>
+  </si>
+  <si>
+    <t>59318502</t>
   </si>
   <si>
     <t>CTTTACACGCAGAAGGTCCT</t>
@@ -113,13 +176,13 @@
     <t>23</t>
   </si>
   <si>
-    <t>59318122</t>
-  </si>
-  <si>
-    <t>59318145</t>
-  </si>
-  <si>
-    <t>59318125</t>
+    <t>59318480</t>
+  </si>
+  <si>
+    <t>59318503</t>
+  </si>
+  <si>
+    <t>59318483</t>
   </si>
   <si>
     <t>GCTTTACACGCAGAAGGTCC</t>
@@ -134,16 +197,13 @@
     <t>4</t>
   </si>
   <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>59318128</t>
-  </si>
-  <si>
-    <t>59318151</t>
-  </si>
-  <si>
-    <t>59318131</t>
+    <t>59318486</t>
+  </si>
+  <si>
+    <t>59318509</t>
+  </si>
+  <si>
+    <t>59318489</t>
   </si>
   <si>
     <t>ACGTCTGCTTTACACGCAGA</t>
@@ -158,22 +218,37 @@
     <t>24</t>
   </si>
   <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>59318147</t>
-  </si>
-  <si>
-    <t>59318170</t>
-  </si>
-  <si>
-    <t>59318167</t>
-  </si>
-  <si>
-    <t>ACGTGATAACCACTACACTA</t>
-  </si>
-  <si>
-    <t>67</t>
+    <t>60</t>
+  </si>
+  <si>
+    <t>59318505</t>
+  </si>
+  <si>
+    <t>59318528</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>59318525</t>
+  </si>
+  <si>
+    <t>ACGTGATAACCGCTACACTA</t>
+  </si>
+  <si>
+    <t>27% (42)</t>
+  </si>
+  <si>
+    <t>46% (43)</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>MIT Spec. Score: 8, Doench 2016: 27%, Moreno-Mateos: 46%</t>
+  </si>
+  <si>
+    <t>1.64566E+11</t>
   </si>
 </sst>
 </file>
@@ -218,7 +293,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S6"/>
+  <dimension ref="A1:S8"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -241,10 +316,10 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H1" t="s">
         <v>6</v>
@@ -262,25 +337,25 @@
         <v>9</v>
       </c>
       <c r="M1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>11</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>12</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>14</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>15</v>
-      </c>
-      <c r="S1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2">
@@ -294,10 +369,10 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F2" t="s">
         <v>19</v>
@@ -321,25 +396,25 @@
         <v>21</v>
       </c>
       <c r="M2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" t="s">
         <v>10</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>22</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q2" t="s">
         <v>23</v>
       </c>
-      <c r="P2" t="s">
+      <c r="R2" t="s">
         <v>24</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="S2" t="s">
         <v>25</v>
-      </c>
-      <c r="R2" t="s">
-        <v>15</v>
-      </c>
-      <c r="S2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -353,52 +428,52 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="G3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H3" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="I3" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="J3" t="s">
         <v>7</v>
       </c>
       <c r="K3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="L3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M3" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="N3" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="O3" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="P3" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="Q3" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="R3" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="S3" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4">
@@ -406,58 +481,58 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F4" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H4" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="I4" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="J4" t="s">
         <v>7</v>
       </c>
       <c r="K4" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="L4" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="M4" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="N4" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="O4" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="P4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>47</v>
+      </c>
+      <c r="R4" t="s">
         <v>39</v>
       </c>
-      <c r="Q4" t="s">
-        <v>40</v>
-      </c>
-      <c r="R4" t="s">
-        <v>15</v>
-      </c>
       <c r="S4" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5">
@@ -465,58 +540,58 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D5" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G5" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H5" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="I5" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="J5" t="s">
         <v>7</v>
       </c>
       <c r="K5" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L5" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="M5" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="N5" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="O5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="P5" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="Q5" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="R5" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="S5" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6">
@@ -524,58 +599,176 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D6" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
         <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="G6" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="H6" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="I6" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="J6" t="s">
         <v>7</v>
       </c>
       <c r="K6" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="L6" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="M6" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="N6" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="O6" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="P6" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="Q6" t="s">
+        <v>13</v>
+      </c>
+      <c r="R6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K7" t="s">
+        <v>64</v>
+      </c>
+      <c r="L7" t="s">
+        <v>33</v>
+      </c>
+      <c r="M7" t="s">
+        <v>34</v>
+      </c>
+      <c r="N7" t="s">
+        <v>65</v>
+      </c>
+      <c r="O7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P7" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>68</v>
+      </c>
+      <c r="R7" t="s">
+        <v>39</v>
+      </c>
+      <c r="S7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G8" t="s">
+        <v>72</v>
+      </c>
+      <c r="H8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8" t="s">
+        <v>7</v>
+      </c>
+      <c r="K8" t="s">
+        <v>73</v>
+      </c>
+      <c r="L8" t="s">
+        <v>9</v>
+      </c>
+      <c r="M8" t="s">
+        <v>71</v>
+      </c>
+      <c r="N8" t="s">
+        <v>74</v>
+      </c>
+      <c r="O8" t="s">
+        <v>75</v>
+      </c>
+      <c r="P8" t="s">
         <v>53</v>
       </c>
-      <c r="R6" t="s">
-        <v>15</v>
-      </c>
-      <c r="S6" t="s">
-        <v>3</v>
+      <c r="Q8" t="s">
+        <v>76</v>
+      </c>
+      <c r="R8" t="s">
+        <v>77</v>
+      </c>
+      <c r="S8" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
